--- a/KR210_R2700_KRC.xlsx
+++ b/KR210_R2700_KRC.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B78B3-3A77-4E7B-A4ED-4B745EA62E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610F2CB-CFF6-42EF-8F25-3033F030A469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="688" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15885" yWindow="-120" windowWidth="21600" windowHeight="11385" tabRatio="688" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="12" r:id="rId1"/>
-    <sheet name="spec" sheetId="4" r:id="rId2"/>
-    <sheet name="axis" sheetId="3" r:id="rId3"/>
-    <sheet name="motor" sheetId="10" r:id="rId4"/>
-    <sheet name="gearbox" sheetId="11" r:id="rId5"/>
-    <sheet name="dimension" sheetId="1" r:id="rId6"/>
-    <sheet name="body" sheetId="2" r:id="rId7"/>
+    <sheet name="body" sheetId="2" r:id="rId2"/>
+    <sheet name="spec" sheetId="4" r:id="rId3"/>
+    <sheet name="axis" sheetId="3" r:id="rId4"/>
+    <sheet name="motor" sheetId="10" r:id="rId5"/>
+    <sheet name="gearbox" sheetId="11" r:id="rId6"/>
+    <sheet name="dimension" sheetId="1" r:id="rId7"/>
     <sheet name="load" sheetId="13" r:id="rId8"/>
     <sheet name="CBS" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -340,10 +349,6 @@
   </si>
   <si>
     <t>减速器静摩擦力(Nm，输出侧)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速器粘滞摩擦系数(Nm/rad，输出侧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,18 +931,6 @@
   </si>
   <si>
     <t>Overall mass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body mass (kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body center of mass (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body Inertia (kg*m^2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1808,6 +1801,22 @@
   <si>
     <t>'null'</t>
   </si>
+  <si>
+    <t>body mass (kg)各个连杆质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body center of mass (m)质心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body Inertia (kg*m^2)惯量参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器粘滞摩擦系数Fv(Nm/rad，输出侧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2233,6 +2242,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2350,12 +2365,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2376,6 +2385,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25578</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>59130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1249503</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>89389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA1BFCC-B6BA-4188-B5A3-F6912998AC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25578" y="10212780"/>
+          <a:ext cx="7815225" cy="3830734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2424,7 +2482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2477,16 +2535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>911088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1244953</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146788</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82101</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>150547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2509,57 +2567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="3867150"/>
-          <a:ext cx="5016853" cy="2280388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>25578</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>59130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1249503</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>89389</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA1BFCC-B6BA-4188-B5A3-F6912998AC3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25578" y="10212780"/>
-          <a:ext cx="7815225" cy="3830734"/>
+          <a:off x="4969566" y="3587715"/>
+          <a:ext cx="8944492" cy="4050310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2939,600 +2948,600 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="B2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
     </row>
     <row r="11" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
     </row>
     <row r="13" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
     </row>
     <row r="14" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
     </row>
     <row r="15" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
     </row>
     <row r="16" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
     </row>
     <row r="21" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46"/>
     </row>
     <row r="22" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
     </row>
     <row r="24" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46"/>
     </row>
     <row r="25" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
     </row>
     <row r="26" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
     </row>
     <row r="27" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
     </row>
     <row r="28" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46"/>
     </row>
     <row r="29" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
     </row>
     <row r="30" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46"/>
     </row>
     <row r="31" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
     </row>
     <row r="34" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="22"/>
@@ -3833,6 +3842,970 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>225.96</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3">
+        <v>372.27</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>232.06</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>202.83</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>66.003524799999994</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="28">
+        <f>SUM(B2:B8)</f>
+        <v>1099.1235247999998</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.4752100000000001E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7.9348000000000005E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.23671600000000001</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.48687097200000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.117636803</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.16376423600000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-0.115</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.141641296</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.30059099579999998</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9.4005009000000008</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.4005009000000008</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.4005009000000008</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>31.5035774721898</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.2592113917872396</v>
+      </c>
+      <c r="C27" s="3">
+        <v>58.471582641704899</v>
+      </c>
+      <c r="D27" s="3">
+        <v>57.257491325638398</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>21.816562321950499</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.5964708667931098</v>
+      </c>
+      <c r="D28" s="3">
+        <v>21.434996474959998</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.9383308369596199</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.83191604462252</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.35491905590984701</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A35:E41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCD5B81-29D9-45B3-93DB-D775FC4FF2B8}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -3848,229 +4821,229 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="21">
         <v>2701</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
+      <c r="F1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="21">
         <v>210</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="21">
         <v>275</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" s="21">
         <v>300</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B7" s="21">
         <v>130</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B9" s="21">
         <v>150</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21">
         <v>0.05</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12" s="21">
         <v>0</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
+        <v>166</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
+        <v>167</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B16" s="21">
         <v>1077</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4083,7 +5056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K85"/>
   <sheetViews>
@@ -4124,7 +5097,7 @@
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4151,7 +5124,7 @@
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3">
         <v>-185</v>
@@ -4176,7 +5149,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>185</v>
@@ -4201,7 +5174,7 @@
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3">
         <v>120</v>
@@ -4226,7 +5199,7 @@
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4251,7 +5224,7 @@
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4273,8 +5246,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
+      <c r="A8" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4299,7 +5272,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -4323,7 +5296,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -4347,7 +5320,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -4371,7 +5344,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -4395,7 +5368,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4425,51 +5398,51 @@
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="A17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4554,11 +5527,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FED13D7-F0A2-48AC-91D4-F6E6A3B10891}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -4598,45 +5571,45 @@
         <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4664,7 +5637,7 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4939,8 +5912,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>119</v>
+      <c r="A17" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -4962,7 +5935,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="3">
         <v>2114</v>
       </c>
@@ -4983,7 +5956,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3">
         <v>3589</v>
       </c>
@@ -5004,7 +5977,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="3">
         <v>5500</v>
       </c>
@@ -5025,7 +5998,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="3">
         <v>5501</v>
       </c>
@@ -5046,7 +6019,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="3">
         <v>5501</v>
       </c>
@@ -5067,7 +6040,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="61" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="3">
@@ -5090,7 +6063,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="3">
         <v>35.128900000000002</v>
       </c>
@@ -5111,7 +6084,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="3">
         <v>20.8263</v>
       </c>
@@ -5132,7 +6105,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="3">
         <v>13.200200000000001</v>
       </c>
@@ -5153,7 +6126,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -5174,7 +6147,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -5264,8 +6237,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
-        <v>103</v>
+      <c r="A32" s="58" t="s">
+        <v>102</v>
       </c>
       <c r="B32" s="36">
         <v>-1.8228999999999999E-4</v>
@@ -5286,11 +6259,11 @@
         <v>-3.2383999999999999E-4</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="3">
         <v>0</v>
       </c>
@@ -5310,11 +6283,11 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="3">
         <v>1.4</v>
       </c>
@@ -5334,35 +6307,35 @@
         <v>1.5809</v>
       </c>
       <c r="H34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="3">
         <v>-8.9798000000000005E-4</v>
       </c>
@@ -5382,11 +6355,11 @@
         <v>-8.6218000000000004E-4</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -5406,11 +6379,11 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="3">
         <v>343.15</v>
       </c>
@@ -5430,12 +6403,12 @@
         <v>343.15</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
-        <v>108</v>
+      <c r="A39" s="58" t="s">
+        <v>107</v>
       </c>
       <c r="B39" s="3">
         <v>60</v>
@@ -5456,11 +6429,11 @@
         <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -5480,11 +6453,11 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="3">
         <v>2</v>
       </c>
@@ -5504,58 +6477,58 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="A45" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
@@ -5607,12 +6580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F704511F-1AED-4960-8374-88A286A9019C}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5671,53 +6644,53 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>175</v>
+        <v>153</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="78">
-        <v>0</v>
-      </c>
-      <c r="C4" s="78">
-        <v>0</v>
-      </c>
-      <c r="D4" s="78">
-        <v>0</v>
-      </c>
-      <c r="E4" s="78">
-        <v>0</v>
-      </c>
-      <c r="F4" s="78">
-        <v>0</v>
-      </c>
-      <c r="G4" s="78">
+      <c r="B4" s="39">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B5" s="23">
         <v>0</v>
@@ -5788,22 +6761,22 @@
       <c r="A8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="78">
-        <v>0</v>
-      </c>
-      <c r="C8" s="78">
-        <v>0</v>
-      </c>
-      <c r="D8" s="78">
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="78">
-        <v>0</v>
-      </c>
-      <c r="G8" s="78">
+      <c r="B8" s="39">
+        <v>0</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5811,22 +6784,22 @@
       <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="78">
-        <v>0</v>
-      </c>
-      <c r="C9" s="78">
-        <v>0</v>
-      </c>
-      <c r="D9" s="78">
-        <v>0</v>
-      </c>
-      <c r="E9" s="78">
-        <v>0</v>
-      </c>
-      <c r="F9" s="78">
-        <v>0</v>
-      </c>
-      <c r="G9" s="78">
+      <c r="B9" s="39">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5834,45 +6807,45 @@
       <c r="A10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="78">
-        <v>0</v>
-      </c>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="78">
-        <v>0</v>
-      </c>
-      <c r="E10" s="78">
-        <v>0</v>
-      </c>
-      <c r="F10" s="78">
-        <v>0</v>
-      </c>
-      <c r="G10" s="78">
+      <c r="B10" s="39">
+        <v>0</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="78">
-        <v>0</v>
-      </c>
-      <c r="C11" s="78">
-        <v>0</v>
-      </c>
-      <c r="D11" s="78">
-        <v>0</v>
-      </c>
-      <c r="E11" s="78">
-        <v>0</v>
-      </c>
-      <c r="F11" s="78">
-        <v>0</v>
-      </c>
-      <c r="G11" s="78">
+        <v>156</v>
+      </c>
+      <c r="B11" s="39">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5880,22 +6853,22 @@
       <c r="A12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="78">
-        <v>0</v>
-      </c>
-      <c r="C12" s="78">
-        <v>0</v>
-      </c>
-      <c r="D12" s="78">
-        <v>0</v>
-      </c>
-      <c r="E12" s="78">
-        <v>0</v>
-      </c>
-      <c r="F12" s="78">
-        <v>0</v>
-      </c>
-      <c r="G12" s="78">
+      <c r="B12" s="39">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5903,22 +6876,22 @@
       <c r="A13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="78">
-        <v>0</v>
-      </c>
-      <c r="C13" s="78">
-        <v>0</v>
-      </c>
-      <c r="D13" s="78">
-        <v>0</v>
-      </c>
-      <c r="E13" s="78">
-        <v>0</v>
-      </c>
-      <c r="F13" s="78">
-        <v>0</v>
-      </c>
-      <c r="G13" s="78">
+      <c r="B13" s="39">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5947,7 +6920,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B15" s="23">
         <v>599.36114499999996</v>
@@ -6016,7 +6989,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B18" s="23">
         <v>7290</v>
@@ -6039,7 +7012,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" s="4">
         <v>17496</v>
@@ -6064,45 +7037,45 @@
       <c r="A20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="79">
-        <v>0</v>
-      </c>
-      <c r="C20" s="79">
-        <v>0</v>
-      </c>
-      <c r="D20" s="79">
-        <v>0</v>
-      </c>
-      <c r="E20" s="79">
-        <v>0</v>
-      </c>
-      <c r="F20" s="79">
-        <v>0</v>
-      </c>
-      <c r="G20" s="79">
+      <c r="B20" s="40">
+        <v>0</v>
+      </c>
+      <c r="C20" s="40">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="79">
-        <v>0</v>
-      </c>
-      <c r="C21" s="79">
-        <v>0</v>
-      </c>
-      <c r="D21" s="79">
-        <v>0</v>
-      </c>
-      <c r="E21" s="79">
-        <v>0</v>
-      </c>
-      <c r="F21" s="79">
-        <v>0</v>
-      </c>
-      <c r="G21" s="79">
+        <v>163</v>
+      </c>
+      <c r="B21" s="40">
+        <v>0</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6110,22 +7083,22 @@
       <c r="A22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="79">
-        <v>0</v>
-      </c>
-      <c r="C22" s="79">
-        <v>0</v>
-      </c>
-      <c r="D22" s="79">
-        <v>0</v>
-      </c>
-      <c r="E22" s="79">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
-        <v>0</v>
-      </c>
-      <c r="G22" s="79">
+      <c r="B22" s="40">
+        <v>0</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0</v>
+      </c>
+      <c r="G22" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6133,22 +7106,22 @@
       <c r="A23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="79">
-        <v>0</v>
-      </c>
-      <c r="C23" s="79">
-        <v>0</v>
-      </c>
-      <c r="D23" s="79">
-        <v>0</v>
-      </c>
-      <c r="E23" s="79">
-        <v>0</v>
-      </c>
-      <c r="F23" s="79">
-        <v>0</v>
-      </c>
-      <c r="G23" s="79">
+      <c r="B23" s="40">
+        <v>0</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0</v>
+      </c>
+      <c r="G23" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6156,22 +7129,22 @@
       <c r="A24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="79">
-        <v>0</v>
-      </c>
-      <c r="C24" s="79">
-        <v>0</v>
-      </c>
-      <c r="D24" s="79">
-        <v>0</v>
-      </c>
-      <c r="E24" s="79">
-        <v>0</v>
-      </c>
-      <c r="F24" s="79">
-        <v>0</v>
-      </c>
-      <c r="G24" s="79">
+      <c r="B24" s="40">
+        <v>0</v>
+      </c>
+      <c r="C24" s="40">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6179,22 +7152,22 @@
       <c r="A25" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="79">
-        <v>0</v>
-      </c>
-      <c r="C25" s="79">
-        <v>0</v>
-      </c>
-      <c r="D25" s="79">
-        <v>0</v>
-      </c>
-      <c r="E25" s="79">
-        <v>0</v>
-      </c>
-      <c r="F25" s="79">
-        <v>0</v>
-      </c>
-      <c r="G25" s="79">
+      <c r="B25" s="40">
+        <v>0</v>
+      </c>
+      <c r="C25" s="40">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40">
+        <v>0</v>
+      </c>
+      <c r="F25" s="40">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6202,28 +7175,28 @@
       <c r="A26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="78">
-        <v>0</v>
-      </c>
-      <c r="C26" s="78">
-        <v>0</v>
-      </c>
-      <c r="D26" s="78">
-        <v>0</v>
-      </c>
-      <c r="E26" s="78">
-        <v>0</v>
-      </c>
-      <c r="F26" s="78">
-        <v>0</v>
-      </c>
-      <c r="G26" s="78">
+      <c r="B26" s="39">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>133</v>
+      <c r="A27" s="58" t="s">
+        <v>132</v>
       </c>
       <c r="B27" s="23">
         <v>0</v>
@@ -6245,7 +7218,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="23">
         <v>12.0419879210716</v>
       </c>
@@ -6266,7 +7239,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="23">
         <v>16.3689513536596</v>
       </c>
@@ -6287,7 +7260,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="23">
         <v>18.710527427345099</v>
       </c>
@@ -6308,7 +7281,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="23">
         <v>19.466073414905502</v>
       </c>
@@ -6329,7 +7302,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="23">
         <v>19.466073414905502</v>
       </c>
@@ -6350,7 +7323,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="23">
@@ -6373,7 +7346,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="23">
         <v>5988.0968722016496</v>
       </c>
@@ -6394,7 +7367,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="23">
         <v>4502.7663083881498</v>
       </c>
@@ -6415,7 +7388,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="23">
         <v>2891.0887291438798</v>
       </c>
@@ -6436,7 +7409,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="23">
         <v>1215</v>
       </c>
@@ -6457,7 +7430,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="23">
         <v>0</v>
       </c>
@@ -6593,105 +7566,105 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="A47" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6705,12 +7678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6722,7 +7695,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>42</v>
@@ -6882,7 +7855,7 @@
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -6926,71 +7899,71 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7003,975 +7976,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.625" customWidth="1"/>
-    <col min="2" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3">
-        <v>225.96</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3">
-        <v>372.27</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>232.06</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <v>202.83</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>66.003524799999994</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="28">
-        <f>SUM(B2:B8)</f>
-        <v>1099.1235247999998</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3.4752100000000001E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7.9348000000000005E-3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-0.23671600000000001</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.48687097200000001</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.117636803</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.16376423600000001</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-0.115</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.141641296</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.30059099579999998</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-    </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-    </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3">
-        <v>9.4005009000000008</v>
-      </c>
-      <c r="C25" s="3">
-        <v>9.4005009000000008</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.4005009000000008</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>31.5035774721898</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6.2592113917872396</v>
-      </c>
-      <c r="C27" s="3">
-        <v>58.471582641704899</v>
-      </c>
-      <c r="D27" s="3">
-        <v>57.257491325638398</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3">
-        <v>21.816562321950499</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.5964708667931098</v>
-      </c>
-      <c r="D28" s="3">
-        <v>21.434996474959998</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.9383308369596199</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.83191604462252</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.35491905590984701</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A35:E41"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C034EF-7D4B-404D-A530-47A094710C2C}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:G34"/>
     </sheetView>
   </sheetViews>
@@ -7983,10 +7992,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="73"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -8010,7 +8019,7 @@
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3">
         <v>210</v>
@@ -8038,7 +8047,7 @@
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -8066,7 +8075,7 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -8094,7 +8103,7 @@
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -8122,7 +8131,7 @@
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3">
         <v>50</v>
@@ -8150,7 +8159,7 @@
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -8178,7 +8187,7 @@
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -8206,7 +8215,7 @@
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -8234,7 +8243,7 @@
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="28">
         <f>SUM(B2:B9)</f>
@@ -8287,7 +8296,7 @@
     </row>
     <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>0</v>
@@ -8303,7 +8312,7 @@
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3">
         <v>0.27</v>
@@ -8319,7 +8328,7 @@
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -8335,7 +8344,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -8351,7 +8360,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -8367,7 +8376,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" s="3">
         <v>-0.2</v>
@@ -8383,7 +8392,7 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -8399,7 +8408,7 @@
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -8415,7 +8424,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -8455,7 +8464,7 @@
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>3</v>
@@ -8478,7 +8487,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B27" s="3">
         <v>105</v>
@@ -8501,7 +8510,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8524,7 +8533,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8547,7 +8556,7 @@
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -8570,7 +8579,7 @@
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -8593,7 +8602,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -8616,7 +8625,7 @@
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8639,7 +8648,7 @@
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -8691,11 +8700,11 @@
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
+      <c r="A38" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -8703,9 +8712,9 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -8713,9 +8722,9 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -8723,9 +8732,9 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -8733,9 +8742,9 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -8743,9 +8752,9 @@
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -8753,9 +8762,9 @@
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -8763,9 +8772,9 @@
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -8773,9 +8782,9 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -8783,9 +8792,9 @@
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -8793,9 +8802,9 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -8803,9 +8812,9 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -8813,9 +8822,9 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -8823,9 +8832,9 @@
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
@@ -8833,9 +8842,9 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -8843,9 +8852,9 @@
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -8853,9 +8862,9 @@
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -8863,9 +8872,9 @@
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -8873,9 +8882,9 @@
       <c r="H55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -8883,9 +8892,9 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -8893,9 +8902,9 @@
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -8903,9 +8912,9 @@
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -8913,9 +8922,9 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -8923,9 +8932,9 @@
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -8933,9 +8942,9 @@
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -8943,9 +8952,9 @@
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -8968,7 +8977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65109B9F-AFFC-439D-B306-94C5E990E5DB}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8979,15 +8988,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -9012,7 +9021,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -9034,8 +9043,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>122</v>
+      <c r="A4" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -9057,7 +9066,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="3">
         <v>0</v>
       </c>
@@ -9078,7 +9087,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -9099,7 +9108,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="3">
         <v>0</v>
       </c>
@@ -9120,8 +9129,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>123</v>
+      <c r="A8" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -9143,7 +9152,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -9164,7 +9173,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -9185,7 +9194,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="3">
         <v>0</v>
       </c>
@@ -9207,7 +9216,7 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -9230,7 +9239,7 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -9253,7 +9262,7 @@
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -9276,7 +9285,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -9299,7 +9308,7 @@
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -9322,7 +9331,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -9345,7 +9354,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -9368,7 +9377,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -9391,7 +9400,7 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -9414,7 +9423,7 @@
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -9437,7 +9446,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -9460,7 +9469,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -9483,7 +9492,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -9523,89 +9532,89 @@
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="33"/>
     </row>
   </sheetData>
